--- a/public/helloworld.xlsx
+++ b/public/helloworld.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Nom</t>
   </si>
@@ -29,10 +26,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>nom:event123 Description:azeazeazea date:2021-01-01Participants:mohammed</t>
-  </si>
-  <si>
-    <t>nom:event1 Description:zaeaeaeaea date:2021-01-01Participants:mohammed</t>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>nom:event1 Description:zaeaeaeaea date:2022-03-10Participants:mohammed</t>
+  </si>
+  <si>
+    <t>nom:Running Description:abbbbzc date:2021-01-01Participants:mohamemd</t>
+  </si>
+  <si>
+    <t>nom:event1 Description:azezaeaea date:2017-01-01Participants:</t>
+  </si>
+  <si>
+    <t>nom:runlo Description:azeazzea date:2022-03-10Participants:mohamemd</t>
   </si>
 </sst>
 </file>
@@ -397,6 +403,12 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/helloworld.xlsx
+++ b/public/helloworld.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Nom</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>nom:runlo Description:azeazzea date:2022-03-10Participants:mohamemd</t>
+  </si>
+  <si>
+    <t>nom:neweventt Description:azeazeae date:2022-01-01Participants:marwen</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,7 +385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -408,6 +411,9 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
